--- a/GameAssets/Tables/develop/Level.xlsx
+++ b/GameAssets/Tables/develop/Level.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12525"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="等级表&amp;Level" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>

--- a/GameAssets/Tables/develop/Level.xlsx
+++ b/GameAssets/Tables/develop/Level.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="27945" windowHeight="12525"/>
   </bookViews>
   <sheets>
-    <sheet name="等级表&amp;Level" sheetId="1" r:id="rId1"/>
+    <sheet name="等级表" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -944,7 +944,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/GameAssets/Tables/develop/Level.xlsx
+++ b/GameAssets/Tables/develop/Level.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="等级表" sheetId="1" r:id="rId1"/>
+    <sheet name="等级表&amp;Level" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -15,13 +15,61 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>攻击间隔</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>防御力</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>attackInverval</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>defence</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -626,9 +674,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -941,14 +995,320 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="20.375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>40000</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>40001</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3300</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>40002</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3100</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>40003</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2900</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>51</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>40004</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2700</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>62</v>
+      </c>
+      <c r="F8" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>40005</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2100</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>74</v>
+      </c>
+      <c r="F9" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>40006</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>89</v>
+      </c>
+      <c r="F10" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>40007</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1700</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>106</v>
+      </c>
+      <c r="F11" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>40008</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>127</v>
+      </c>
+      <c r="F12" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>40009</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1300</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>153</v>
+      </c>
+      <c r="F13" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>40010</v>
+      </c>
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>900</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>184</v>
+      </c>
+      <c r="F14" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>40011</v>
+      </c>
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>700</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>220</v>
+      </c>
+      <c r="F15" s="1">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
